--- a/excel2mysql/excels/seven_login_award.xlsx
+++ b/excel2mysql/excels/seven_login_award.xlsx
@@ -19,27 +19,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>day</t>
   </si>
   <si>
+    <t>int(11)|PRI|</t>
+  </si>
+  <si>
     <t>第几天登录</t>
   </si>
   <si>
     <t>deseripty</t>
   </si>
   <si>
+    <t>varchar(255)||</t>
+  </si>
+  <si>
     <t>活动描述</t>
   </si>
   <si>
     <t>draw_time</t>
   </si>
   <si>
+    <t>bigint(11)||</t>
+  </si>
+  <si>
     <t>活动可以领取的次数</t>
   </si>
   <si>
     <t>draw_type</t>
+  </si>
+  <si>
+    <t>int(11)||</t>
   </si>
   <si>
     <t xml:space="preserve">领取类型，1是永久，2是每日领取，3是每周领取 </t>
@@ -384,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,19 +407,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -415,19 +427,39 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
